--- a/ExcelData/Data_Table/MapTable.xlsx
+++ b/ExcelData/Data_Table/MapTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37578D78-B6C3-410C-8BC5-5804CCAEA730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329F965C-28A2-446D-AFB7-A1783CFD353D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="975" windowWidth="14400" windowHeight="12210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_List" sheetId="2" r:id="rId1"/>
@@ -722,6 +722,24 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -757,24 +775,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1079,11 +1079,11 @@
       <c r="F2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="13" t="s">
         <v>6</v>
       </c>
@@ -1121,11 +1121,11 @@
       <c r="F3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="22" t="s">
         <v>13</v>
       </c>
@@ -1151,13 +1151,13 @@
       <c r="B4" s="21">
         <v>1</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="45"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="23"/>
       <c r="K4" s="14"/>
       <c r="L4" s="15"/>
@@ -1181,13 +1181,13 @@
       <c r="B5" s="21">
         <v>2</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="46"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="24"/>
       <c r="F5" s="25"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="23"/>
       <c r="K5" s="14"/>
       <c r="L5" s="15"/>
@@ -1211,13 +1211,13 @@
       <c r="B6" s="21">
         <v>3</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="46"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="24"/>
       <c r="F6" s="25"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="23"/>
       <c r="K6" s="14"/>
       <c r="L6" s="15"/>
@@ -1241,13 +1241,13 @@
       <c r="B7" s="21">
         <v>4</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="46"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="24"/>
       <c r="F7" s="23"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="23"/>
       <c r="K7" s="14"/>
       <c r="L7" s="15"/>
@@ -1271,13 +1271,13 @@
       <c r="B8" s="21">
         <v>5</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="46"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="23"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="23"/>
       <c r="K8" s="14"/>
       <c r="L8" s="15"/>
@@ -1301,13 +1301,13 @@
       <c r="B9" s="21">
         <v>6</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="46"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="24"/>
       <c r="F9" s="25"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="26"/>
       <c r="K9" s="14"/>
       <c r="L9" s="15"/>
@@ -1331,13 +1331,13 @@
       <c r="B10" s="21">
         <v>7</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="46"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="24"/>
       <c r="F10" s="25"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="23"/>
       <c r="K10" s="14"/>
       <c r="L10" s="15"/>
@@ -1361,13 +1361,13 @@
       <c r="B11" s="21">
         <v>8</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="46"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="24"/>
       <c r="F11" s="25"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="23"/>
       <c r="K11" s="14"/>
       <c r="L11" s="15"/>
@@ -1391,13 +1391,13 @@
       <c r="B12" s="21">
         <v>9</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="46"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="24"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="23"/>
       <c r="K12" s="14"/>
       <c r="L12" s="15"/>
@@ -1421,13 +1421,13 @@
       <c r="B13" s="21">
         <v>10</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="47"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="23"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="23"/>
       <c r="K13" s="14"/>
       <c r="L13" s="15"/>
@@ -1451,13 +1451,13 @@
       <c r="B14" s="21">
         <v>11</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="24"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="23"/>
       <c r="K14" s="14"/>
       <c r="L14" s="15"/>
@@ -1481,13 +1481,13 @@
       <c r="B15" s="21">
         <v>12</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="24"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="23"/>
       <c r="K15" s="14"/>
       <c r="L15" s="15"/>
@@ -1511,13 +1511,13 @@
       <c r="B16" s="21">
         <v>13</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="23"/>
       <c r="F16" s="25"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="23"/>
       <c r="K16" s="14"/>
       <c r="L16" s="15"/>
@@ -23546,11 +23546,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="C4:C16"/>
@@ -23564,6 +23559,11 @@
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -23576,7 +23576,7 @@
   <dimension ref="A1:R1000"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -43878,7 +43878,7 @@
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="1" max="47" man="1"/>
-    <brk id="12" max="47" man="1"/>
+    <brk id="11" max="47" man="1"/>
   </colBreaks>
 </worksheet>
 </file>